--- a/biology/Médecine/Gaze/Gaze.xlsx
+++ b/biology/Médecine/Gaze/Gaze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gaze est une étoffe  légère, transparente, faite de fil de coton, lin, laine ou soie, quelquefois d’or ou d’argent. 
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incertaine. Une étymologie populaire renvoie à la ville de Gaza en Palestine. Selon le CNTRL une hypothèse plus vraisemblable serait un emprunt à l'arabe qazz « bourre de soie », mot lui-même dérivé du persan[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incertaine. Une étymologie populaire renvoie à la ville de Gaza en Palestine. Selon le CNTRL une hypothèse plus vraisemblable serait un emprunt à l'arabe qazz « bourre de soie », mot lui-même dérivé du persan. 
 Importée depuis la fin du Moyen Âge, la gaze est tissée en France (Lyon et Paris). Elle connaît une grande vogue aux XVIIIe et XIXe siècles.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En textile, la gaze est un tissu qui se caractérise par un tissage de fils écartés. Elle s'emploie principalement dans l'habillement (voiles, écharpes, cols, robes) et l'ameublement (rideaux, moustiquaires).
 L'usage de la gaze est également lié à l'apparition du tutu au XIXe siècle. À l'époque, certaines danseuses achètent de la gaze pour réaliser elles-mêmes leurs tutus. La gaze s'utilise jusqu'à la Seconde Guerre mondiale pour la fabrication du tutu, mais plus actuellement.
